--- a/outputs/20250601_185319/sentence_report/parsed_DJIFlightRecord_2024-11-10_[03-09-29]_sentence.xlsx
+++ b/outputs/20250601_185319/sentence_report/parsed_DJIFlightRecord_2024-11-10_[03-09-29]_sentence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>E15</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Set Return to Home (RTH) altitude to 100 m (328 ft).;</t>
+          <t>Set Return to Home (RTH) altitude to 100</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N10</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,12 +626,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Set maximum flight altitude to 500 m (1640 ft).;</t>
+          <t>m</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N13</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Flight mode changed to Starting Motors.</t>
+          <t>(328 ft).;</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>N0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -686,22 +686,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3:09:31.42 AM</t>
+          <t>3:09:30.02 AM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Flight mode changed to Manual Takeoff.</t>
+          <t>Data Recorder File Index is 80.; Set Return to Home (RTH) altitude to 100 m (328 ft).; Set maximum flight altitude to 500 m (1640 ft).; Flight mode changed to Starting Motors.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Flight mode changed to Manual Takeoff.</t>
+          <t>Set maximum flight altitude to 500</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -721,22 +721,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3:09:35.42 AM</t>
+          <t>3:09:30.02 AM</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Flight mode changed to P-GPS.</t>
+          <t>Data Recorder File Index is 80.; Set Return to Home (RTH) altitude to 100 m (328 ft).; Set maximum flight altitude to 500 m (1640 ft).; Flight mode changed to Starting Motors.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Flight mode changed to P-GPS.</t>
+          <t>m</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -756,22 +756,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3:09:36.02 AM</t>
+          <t>3:09:30.02 AM</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Home point updated.</t>
+          <t>Data Recorder File Index is 80.; Set Return to Home (RTH) altitude to 100 m (328 ft).; Set maximum flight altitude to 500 m (1640 ft).; Flight mode changed to Starting Motors.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Home point updated.</t>
+          <t>(1640 ft).;</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>N0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -791,22 +791,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3:09:48.82 AM</t>
+          <t>3:09:30.02 AM</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gimbal pitch axis endpoint reached.</t>
+          <t>Data Recorder File Index is 80.; Set Return to Home (RTH) altitude to 100 m (328 ft).; Set maximum flight altitude to 500 m (1640 ft).; Flight mode changed to Starting Motors.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gimbal pitch axis endpoint reached.</t>
+          <t>Flight mode changed to Starting Motors.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>E15</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -826,22 +826,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3:09:51.62 AM</t>
+          <t>3:09:31.42 AM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Gimbal pitch axis endpoint reached.</t>
+          <t>Flight mode changed to Manual Takeoff.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gimbal pitch axis endpoint reached.</t>
+          <t>Flight mode changed to Manual Takeoff.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>E8</t>
+          <t>E18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -861,27 +861,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3:10:21.02 AM</t>
+          <t>3:09:35.42 AM</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -896,27 +896,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3:10:21.02 AM</t>
+          <t>3:09:36.02 AM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Home point updated.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Home point updated.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N5</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -931,27 +931,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3:10:27.82 AM</t>
+          <t>3:09:48.82 AM</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Gimbal pitch axis endpoint reached.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.;</t>
+          <t>Gimbal pitch axis endpoint reached.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -966,27 +966,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3:10:27.82 AM</t>
+          <t>3:09:51.62 AM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Gimbal pitch axis endpoint reached.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>Gimbal pitch axis endpoint reached.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -1001,12 +1001,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3:10:27.82 AM</t>
+          <t>3:10:21.02 AM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1036,12 +1036,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3:10:27.82 AM</t>
+          <t>3:10:21.02 AM</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3:10:30.82 AM</t>
+          <t>3:10:27.82 AM</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1106,27 +1106,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3:10:30.82 AM</t>
+          <t>3:10:27.82 AM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1141,27 +1141,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3:10:30.82 AM</t>
+          <t>3:10:27.82 AM</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>N5</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3:10:38.62 AM</t>
+          <t>3:10:27.82 AM</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1186,17 +1186,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.;</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N5</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1211,27 +1211,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3:10:38.62 AM</t>
+          <t>3:10:30.82 AM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>Image transmission signal weak.;</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3:10:38.62 AM</t>
+          <t>3:10:30.82 AM</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1281,12 +1281,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3:10:38.62 AM</t>
+          <t>3:10:30.82 AM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3:10:38.82 AM</t>
+          <t>3:10:38.62 AM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Image transmission signal weak.;</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1351,22 +1351,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3:10:40.62 AM</t>
+          <t>3:10:38.62 AM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RC signal lost.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>RC signal lost.;</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1386,27 +1386,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3:10:40.62 AM</t>
+          <t>3:10:38.62 AM</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RC signal lost.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -1421,27 +1421,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3:10:40.62 AM</t>
+          <t>3:10:38.62 AM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RC signal lost.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1456,27 +1456,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3:10:40.62 AM</t>
+          <t>3:10:38.82 AM</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RC signal lost.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>N5</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -1491,27 +1491,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3:10:53.82 AM</t>
+          <t>3:10:40.62 AM</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal lost.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal lost.;</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1526,27 +1526,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3:10:57.02 AM</t>
+          <t>3:10:40.62 AM</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>RC signal lost.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1561,27 +1561,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3:10:57.02 AM</t>
+          <t>3:10:40.62 AM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>RC signal lost.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>N5</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -1596,27 +1596,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3:11:01.82 AM</t>
+          <t>3:10:40.62 AM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal lost.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N5</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1631,27 +1631,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3:13:12.42 AM</t>
+          <t>3:10:53.82 AM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -1666,27 +1666,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3:13:12.82 AM</t>
+          <t>3:10:57.02 AM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -1701,22 +1701,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3:13:14.22 AM</t>
+          <t>3:10:57.02 AM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Aircraft braking.; Auto landing in progress.; Flight mode changed to Auto Landing.</t>
+          <t>Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>N5</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1736,27 +1736,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3:13:14.22 AM</t>
+          <t>3:11:01.82 AM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Aircraft braking.; Auto landing in progress.; Flight mode changed to Auto Landing.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Auto landing in progress.;</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -1771,27 +1771,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3:13:14.22 AM</t>
+          <t>3:13:12.42 AM</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Aircraft braking.; Auto landing in progress.; Flight mode changed to Auto Landing.</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Flight mode changed to Auto Landing.</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1806,27 +1806,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3:13:15.82 AM</t>
+          <t>3:13:12.82 AM</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Auto landing in progress.; Make sure the area under the aircraft is safe for landing. Push throttle down to use force landing.</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Auto landing in progress.;</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1841,27 +1841,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3:13:15.82 AM</t>
+          <t>3:13:14.22 AM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Auto landing in progress.; Make sure the area under the aircraft is safe for landing. Push throttle down to use force landing.</t>
+          <t>Aircraft braking.; Auto landing in progress.; Flight mode changed to Auto Landing.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Make sure the area under the aircraft is safe for landing.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>N11</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1876,22 +1876,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3:13:15.82 AM</t>
+          <t>3:13:14.22 AM</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Auto landing in progress.; Make sure the area under the aircraft is safe for landing. Push throttle down to use force landing.</t>
+          <t>Aircraft braking.; Auto landing in progress.; Flight mode changed to Auto Landing.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Push throttle down to use force landing.</t>
+          <t>Auto landing in progress.;</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1911,22 +1911,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3:13:41.82 AM</t>
+          <t>3:13:14.22 AM</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Auto landing in progress.; Make sure the area under the aircraft is safe for landing. Push throttle down to use force landing.</t>
+          <t>Aircraft braking.; Auto landing in progress.; Flight mode changed to Auto Landing.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Auto landing in progress.;</t>
+          <t>Flight mode changed to Auto Landing.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3:13:41.82 AM</t>
+          <t>3:13:15.82 AM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1956,12 +1956,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Make sure the area under the aircraft is safe for landing.</t>
+          <t>Auto landing in progress.;</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>N11</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3:13:41.82 AM</t>
+          <t>3:13:15.82 AM</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Push throttle down to use force landing.</t>
+          <t>Make sure the area under the aircraft is safe for landing.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>N10</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2016,25 +2016,165 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>3:13:15.82 AM</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Auto landing in progress.; Make sure the area under the aircraft is safe for landing. Push throttle down to use force landing.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Push throttle down to use force landing.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>N16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3:13:41.82 AM</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Auto landing in progress.; Make sure the area under the aircraft is safe for landing. Push throttle down to use force landing.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Auto landing in progress.;</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3:13:41.82 AM</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Auto landing in progress.; Make sure the area under the aircraft is safe for landing. Push throttle down to use force landing.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Make sure the area under the aircraft is safe for landing.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>N10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3:13:41.82 AM</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Auto landing in progress.; Make sure the area under the aircraft is safe for landing. Push throttle down to use force landing.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Push throttle down to use force landing.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>N16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>3:13:52.92 AM</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>E6</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
